--- a/excels/nested_types.xlsx
+++ b/excels/nested_types.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snatic/go/src/snatic/excelizor/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GoPath\src\snatic\excelizor\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="460" windowWidth="30660" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="2940" yWindow="465" windowWidth="30660" windowHeight="20535" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
   <si>
     <t>KEY</t>
   </si>
@@ -346,12 +346,18 @@
   </si>
   <si>
     <t>Item1=10 | Item2=11</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>server</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -506,6 +512,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -773,29 +782,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="10" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
         <v>98</v>
@@ -816,7 +825,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -845,7 +854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
@@ -868,61 +877,78 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>91</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>92</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>88</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="E6" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15" t="s">
+      <c r="G6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15" t="s">
         <v>104</v>
       </c>
     </row>
@@ -932,53 +958,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="1"/>
+    <col min="1" max="4" width="10.875" style="1"/>
+    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="10.875" style="1"/>
     <col min="9" max="9" width="13.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
     <col min="11" max="12" width="13.5" style="1" customWidth="1"/>
     <col min="13" max="13" width="35.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="20.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.875" style="1"/>
     <col min="16" max="16" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="31.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.875" style="1"/>
     <col min="19" max="20" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="39.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="39.375" style="1" customWidth="1"/>
     <col min="23" max="23" width="24.5" style="1" customWidth="1"/>
     <col min="24" max="24" width="47" style="1" customWidth="1"/>
-    <col min="25" max="25" width="19.33203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" style="1"/>
-    <col min="27" max="28" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.83203125" style="1"/>
-    <col min="30" max="31" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.33203125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="10.83203125" style="1"/>
-    <col min="34" max="34" width="9.83203125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="18.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="19.375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10.875" style="1"/>
+    <col min="27" max="28" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.875" style="1"/>
+    <col min="30" max="31" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="10.875" style="1"/>
+    <col min="34" max="34" width="9.875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="18.375" style="1" customWidth="1"/>
     <col min="36" max="36" width="21.5" style="1" customWidth="1"/>
-    <col min="37" max="37" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.83203125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.875" style="1" customWidth="1"/>
     <col min="39" max="39" width="23.5" style="1" customWidth="1"/>
-    <col min="40" max="40" width="20.83203125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="13.33203125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="10.83203125" style="1"/>
+    <col min="40" max="40" width="20.875" style="1" customWidth="1"/>
+    <col min="41" max="41" width="13.375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="10.875" style="1"/>
     <col min="43" max="43" width="28" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="10.83203125" style="1"/>
+    <col min="44" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1085,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1170,7 +1196,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1251,7 +1277,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:43" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
